--- a/userData/Summary.xlsx
+++ b/userData/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,31 @@
           <t>time_stamp</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>technology_emissions_pos</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>carrier_emissions_pos</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>technology_emissions_neg</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>carrier_emissions_neg</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>network_emissions_pos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -657,6 +682,531 @@
         <is>
           <t>userData\20250525011113-1</t>
         </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6202548765703.281</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5671576472715.875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27137385584.73267</v>
+      </c>
+      <c r="D3" t="n">
+        <v>475266200642.6733</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28568706760</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6146842673358.549</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55706092344.73267</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6202548765703.281</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>42630.89999985695</v>
+      </c>
+      <c r="R3" t="n">
+        <v>274999482515.4157</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6202548765703.281</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5927549283187.865</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>userData\20250802233910-1</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="B4" t="n">
+        <v>560558279.3021399</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2838405.422452337</v>
+      </c>
+      <c r="D4" t="n">
+        <v>205285332057.718</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3088096006.65783</v>
+      </c>
+      <c r="F4" t="n">
+        <v>205845890337.0201</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3090934412.080283</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.382000207901001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>208884473638.7114</v>
+      </c>
+      <c r="S4" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="T4" t="n">
+        <v>52351110.38903809</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>userData\20250826141509-1</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="B5" t="n">
+        <v>560558279.3021399</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2838405.422452337</v>
+      </c>
+      <c r="D5" t="n">
+        <v>205285332057.718</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3088096006.65783</v>
+      </c>
+      <c r="F5" t="n">
+        <v>205845890337.0201</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3090934412.080283</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3420000076293945</v>
+      </c>
+      <c r="R5" t="n">
+        <v>208884473638.7114</v>
+      </c>
+      <c r="S5" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="T5" t="n">
+        <v>52351110.38903809</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>userData\20250826142033-1</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="B6" t="n">
+        <v>431929795.0159013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>483280.7941501038</v>
+      </c>
+      <c r="D6" t="n">
+        <v>210117737617.5461</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2210919760</v>
+      </c>
+      <c r="F6" t="n">
+        <v>210549667412.562</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2211403040.79415</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2049999237060547</v>
+      </c>
+      <c r="R6" t="n">
+        <v>208884473638.7115</v>
+      </c>
+      <c r="S6" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3876596814.644623</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>userData\20250826142349-1</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="B7" t="n">
+        <v>431929795.0159013</v>
+      </c>
+      <c r="C7" t="n">
+        <v>483280.7941501038</v>
+      </c>
+      <c r="D7" t="n">
+        <v>210117737617.5461</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2210919760</v>
+      </c>
+      <c r="F7" t="n">
+        <v>210549667412.562</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2211403040.79415</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2089998722076416</v>
+      </c>
+      <c r="R7" t="n">
+        <v>208884473638.7115</v>
+      </c>
+      <c r="S7" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3876596814.644623</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>userData\20250826142803-1</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/userData/Summary.xlsx
+++ b/userData/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>42630.89999985695</v>
+        <v>36004.3259999752</v>
       </c>
       <c r="R3" t="n">
-        <v>274999482515.4157</v>
+        <v>274995316065.3195</v>
       </c>
       <c r="S3" t="n">
         <v>6202548765703.281</v>
       </c>
       <c r="T3" t="n">
-        <v>5927549283187.865</v>
+        <v>5927553449637.962</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>userData\20250802233910-1</t>
+          <t>userData\20250813020345-1</t>
         </is>
       </c>
       <c r="AB3" t="n">
@@ -795,25 +795,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>208936824749.1004</v>
+        <v>206903562962.0033</v>
       </c>
       <c r="B4" t="n">
-        <v>560558279.3021399</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2838405.422452337</v>
+        <v>24514.24318152695</v>
       </c>
       <c r="D4" t="n">
-        <v>205285332057.718</v>
+        <v>204662618687.7601</v>
       </c>
       <c r="E4" t="n">
-        <v>3088096006.65783</v>
+        <v>2240919760</v>
       </c>
       <c r="F4" t="n">
-        <v>205845890337.0201</v>
+        <v>204662618687.7601</v>
       </c>
       <c r="G4" t="n">
-        <v>3090934412.080283</v>
+        <v>2240944274.243182</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>208936824749.1004</v>
+        <v>206903562962.0033</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -843,16 +843,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.382000207901001</v>
+        <v>0.01100015640258789</v>
       </c>
       <c r="R4" t="n">
-        <v>208884473638.7114</v>
+        <v>206693538447.7601</v>
       </c>
       <c r="S4" t="n">
-        <v>208936824749.1004</v>
+        <v>206903562962.0033</v>
       </c>
       <c r="T4" t="n">
-        <v>52351110.38903809</v>
+        <v>210024514.2431946</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -873,12 +873,14 @@
       <c r="Y4" t="n">
         <v>1</v>
       </c>
-      <c r="Z4" t="n">
-        <v>-1</v>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>GreenFieldHydro_Island</t>
+        </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>userData\20250826141509-1</t>
+          <t>userData\20251029160735_GreenFieldHydro_Island-1</t>
         </is>
       </c>
       <c r="AB4" t="n">
@@ -894,318 +896,6 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>208936824749.1004</v>
-      </c>
-      <c r="B5" t="n">
-        <v>560558279.3021399</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2838405.422452337</v>
-      </c>
-      <c r="D5" t="n">
-        <v>205285332057.718</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3088096006.65783</v>
-      </c>
-      <c r="F5" t="n">
-        <v>205845890337.0201</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3090934412.080283</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>208936824749.1004</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.3420000076293945</v>
-      </c>
-      <c r="R5" t="n">
-        <v>208884473638.7114</v>
-      </c>
-      <c r="S5" t="n">
-        <v>208936824749.1004</v>
-      </c>
-      <c r="T5" t="n">
-        <v>52351110.38903809</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>costs_emissionlimit</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>userData\20250826142033-1</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>212761070453.3561</v>
-      </c>
-      <c r="B6" t="n">
-        <v>431929795.0159013</v>
-      </c>
-      <c r="C6" t="n">
-        <v>483280.7941501038</v>
-      </c>
-      <c r="D6" t="n">
-        <v>210117737617.5461</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2210919760</v>
-      </c>
-      <c r="F6" t="n">
-        <v>210549667412.562</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2211403040.79415</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>212761070453.3561</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2049999237060547</v>
-      </c>
-      <c r="R6" t="n">
-        <v>208884473638.7115</v>
-      </c>
-      <c r="S6" t="n">
-        <v>212761070453.3561</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3876596814.644623</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>costs_emissionlimit</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>userData\20250826142349-1</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>212761070453.3561</v>
-      </c>
-      <c r="B7" t="n">
-        <v>431929795.0159013</v>
-      </c>
-      <c r="C7" t="n">
-        <v>483280.7941501038</v>
-      </c>
-      <c r="D7" t="n">
-        <v>210117737617.5461</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2210919760</v>
-      </c>
-      <c r="F7" t="n">
-        <v>210549667412.562</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2211403040.79415</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>212761070453.3561</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.2089998722076416</v>
-      </c>
-      <c r="R7" t="n">
-        <v>208884473638.7115</v>
-      </c>
-      <c r="S7" t="n">
-        <v>212761070453.3561</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3876596814.644623</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>costs_emissionlimit</t>
-        </is>
-      </c>
-      <c r="W7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>userData\20250826142803-1</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/userData/Summary.xlsx
+++ b/userData/Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>36004.3259999752</v>
+        <v>42630.89999985695</v>
       </c>
       <c r="R3" t="n">
-        <v>274995316065.3195</v>
+        <v>274999482515.4157</v>
       </c>
       <c r="S3" t="n">
         <v>6202548765703.281</v>
       </c>
       <c r="T3" t="n">
-        <v>5927553449637.962</v>
+        <v>5927549283187.865</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>userData\20250813020345-1</t>
+          <t>userData\20250802233910-1</t>
         </is>
       </c>
       <c r="AB3" t="n">
@@ -795,25 +795,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>206903562962.0033</v>
+        <v>208936824749.1004</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>560558279.3021399</v>
       </c>
       <c r="C4" t="n">
-        <v>24514.24318152695</v>
+        <v>2838405.422452337</v>
       </c>
       <c r="D4" t="n">
-        <v>204662618687.7601</v>
+        <v>205285332057.718</v>
       </c>
       <c r="E4" t="n">
-        <v>2240919760</v>
+        <v>3088096006.65783</v>
       </c>
       <c r="F4" t="n">
-        <v>204662618687.7601</v>
+        <v>205845890337.0201</v>
       </c>
       <c r="G4" t="n">
-        <v>2240944274.243182</v>
+        <v>3090934412.080283</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>206903562962.0033</v>
+        <v>208936824749.1004</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -843,16 +843,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.382000207901001</v>
       </c>
       <c r="R4" t="n">
-        <v>206693538447.7601</v>
+        <v>208884473638.7114</v>
       </c>
       <c r="S4" t="n">
-        <v>206903562962.0033</v>
+        <v>208936824749.1004</v>
       </c>
       <c r="T4" t="n">
-        <v>210024514.2431946</v>
+        <v>52351110.38903809</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -873,14 +873,12 @@
       <c r="Y4" t="n">
         <v>1</v>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>GreenFieldHydro_Island</t>
-        </is>
+      <c r="Z4" t="n">
+        <v>-1</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>userData\20251029160735_GreenFieldHydro_Island-1</t>
+          <t>userData\20250826141509-1</t>
         </is>
       </c>
       <c r="AB4" t="n">
@@ -896,6 +894,526 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="B5" t="n">
+        <v>560558279.3021399</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2838405.422452337</v>
+      </c>
+      <c r="D5" t="n">
+        <v>205285332057.718</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3088096006.65783</v>
+      </c>
+      <c r="F5" t="n">
+        <v>205845890337.0201</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3090934412.080283</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3420000076293945</v>
+      </c>
+      <c r="R5" t="n">
+        <v>208884473638.7114</v>
+      </c>
+      <c r="S5" t="n">
+        <v>208936824749.1004</v>
+      </c>
+      <c r="T5" t="n">
+        <v>52351110.38903809</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>userData\20250826142033-1</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="B6" t="n">
+        <v>431929795.0159013</v>
+      </c>
+      <c r="C6" t="n">
+        <v>483280.7941501038</v>
+      </c>
+      <c r="D6" t="n">
+        <v>210117737617.5461</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2210919760</v>
+      </c>
+      <c r="F6" t="n">
+        <v>210549667412.562</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2211403040.79415</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2049999237060547</v>
+      </c>
+      <c r="R6" t="n">
+        <v>208884473638.7115</v>
+      </c>
+      <c r="S6" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3876596814.644623</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>userData\20250826142349-1</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="B7" t="n">
+        <v>431929795.0159013</v>
+      </c>
+      <c r="C7" t="n">
+        <v>483280.7941501038</v>
+      </c>
+      <c r="D7" t="n">
+        <v>210117737617.5461</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2210919760</v>
+      </c>
+      <c r="F7" t="n">
+        <v>210549667412.562</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2211403040.79415</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2089998722076416</v>
+      </c>
+      <c r="R7" t="n">
+        <v>208884473638.7115</v>
+      </c>
+      <c r="S7" t="n">
+        <v>212761070453.3561</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3876596814.644623</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>userData\20250826142803-1</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>212555257606.3859</v>
+      </c>
+      <c r="B8" t="n">
+        <v>391248723.5784202</v>
+      </c>
+      <c r="C8" t="n">
+        <v>563827.5931751186</v>
+      </c>
+      <c r="D8" t="n">
+        <v>209922525295.2143</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2240919760</v>
+      </c>
+      <c r="F8" t="n">
+        <v>210313774018.7927</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2241483587.593174</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>212555257606.3859</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1640000343322754</v>
+      </c>
+      <c r="R8" t="n">
+        <v>208897880768.9483</v>
+      </c>
+      <c r="S8" t="n">
+        <v>212555257606.3859</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3657376837.437622</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>userData\20250826144826-1</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>327302522268.1901</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100493544796.2502</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6257650125.644318</v>
+      </c>
+      <c r="D9" t="n">
+        <v>212401019790.5789</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8150307555.716727</v>
+      </c>
+      <c r="F9" t="n">
+        <v>312894564586.8291</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14407957681.36105</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>327302522268.1901</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>23106.82899999619</v>
+      </c>
+      <c r="R9" t="n">
+        <v>324700548326.465</v>
+      </c>
+      <c r="S9" t="n">
+        <v>327302522268.1901</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2601973941.725159</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>costs_emissionlimit</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>userData\20250829000334-1</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0</v>
       </c>
     </row>
